--- a/core/static/upload/scrap_data/ThermalInsulation.xlsx
+++ b/core/static/upload/scrap_data/ThermalInsulation.xlsx
@@ -414,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="Q177" sqref="Q177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L179" sqref="L2:L179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
